--- a/biology/Biologie cellulaire et moléculaire/Jean-Marc_Egly/Jean-Marc_Egly.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jean-Marc_Egly/Jean-Marc_Egly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Egly, né le 27 décembre 1945 à Aïn Séfra alors dans les départements français d'Algérie[1], est un chercheur français en biologie moléculaire spécialisé dans le domaine de la transcription. Directeur de recherche à l'INSERM, il a également été président du conseil scientifique de l'ARC de 2006 à 2011. Il est membre de l'Académie des sciences[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marc Egly, né le 27 décembre 1945 à Aïn Séfra alors dans les départements français d'Algérie, est un chercheur français en biologie moléculaire spécialisé dans le domaine de la transcription. Directeur de recherche à l'INSERM, il a également été président du conseil scientifique de l'ARC de 2006 à 2011. Il est membre de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marc Egly fait ses études au lycée Jules-Ferry de Saint-Dié dans les Vosges[1]. Il obtient son doctorat de chimie en 1970 et un second de biochimie en 1976 à l'Université Louis-Pasteur de Strasbourg[1]. En 1985, il devient directeur de recherche INSERM à l'IGBMC de Strasbourg fondé par Pierre Chambon. En 1995, il est chargé par la Secrétaire d'Etat à la Recherche, Elisabeth Dufourcq d'une mission et d'un rapport plaidant en faveur de la création du Grand Séquençage du Génome  à Evry. En 2005, il est élu membre de l'Académie des sciences. Il est également membre du conseil scientifique de l'Office parlementaire d'évaluation des choix scientifiques et technologiques (OPECST).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marc Egly fait ses études au lycée Jules-Ferry de Saint-Dié dans les Vosges. Il obtient son doctorat de chimie en 1970 et un second de biochimie en 1976 à l'Université Louis-Pasteur de Strasbourg. En 1985, il devient directeur de recherche INSERM à l'IGBMC de Strasbourg fondé par Pierre Chambon. En 1995, il est chargé par la Secrétaire d'Etat à la Recherche, Elisabeth Dufourcq d'une mission et d'un rapport plaidant en faveur de la création du Grand Séquençage du Génome  à Evry. En 2005, il est élu membre de l'Académie des sciences. Il est également membre du conseil scientifique de l'Office parlementaire d'évaluation des choix scientifiques et technologiques (OPECST).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux de Jean-Marc Egly ont principalement portés sur la description des mécanismes de la transcription au niveau de l'ARN polymérase de type II.
 </t>
@@ -573,9 +589,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2002 : Prix de recherche de la Fondation Allianz-Institut de France[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2002 : Prix de recherche de la Fondation Allianz-Institut de France
 2004 : Grand Prix de la recherche médicale de l'Inserm
 2014 : officier de la Légion d'honneur (chevalier en 2006)[réf. nécessaire]</t>
         </is>
